--- a/biology/Zoologie/Ameraucana/Ameraucana.xlsx
+++ b/biology/Zoologie/Ameraucana/Ameraucana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Améraucana est une race de poule domestique.
 </t>
@@ -511,14 +523,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille à deux fins (chair et ponte), pratique pour l'élevage familial, facile à engraisser et au plumage abondant.
-Origine
-Elle a été créée dans les années 1970 aux États-Unis par la volonté de quelques éleveurs qui admiraient certains caractères de l'Araucana et admise au standard américain en 1984, mais ne voulaient pas de ceux qui compliquent et limitent l'élevage de cette race (absence de queue réduisant le nombre des œufs fécondés, toupet d'oreille létal sur 25 % des œufs fécondés).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ameraucana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ameraucana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été créée dans les années 1970 aux États-Unis par la volonté de quelques éleveurs qui admiraient certains caractères de l'Araucana et admise au standard américain en 1984, mais ne voulaient pas de ceux qui compliquent et limitent l'élevage de cette race (absence de queue réduisant le nombre des œufs fécondés, toupet d'oreille létal sur 25 % des œufs fécondés).
 Homologuée en France en 1984
-Standard
-Crête : rouge en pois. Plutôt petite
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ameraucana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ameraucana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crête : rouge en pois. Plutôt petite
 Oreillons : rouges, cachés par les favoris
 Couleur des yeux : iris rouges . Assez grand
 Couleur de la peau : jaune
